--- a/biology/Botanique/Pelouse_hybride/Pelouse_hybride.xlsx
+++ b/biology/Botanique/Pelouse_hybride/Pelouse_hybride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pelouse hybride est une technologie de pelouse alliant gazon naturel et microfibres synthétiques.
-Les technologies de pelouse hybride sont principalement utilisées dans les stades et terrains d'entraînement des clubs professionnels de football et rugby[1]. Elles permettent également aux stades d'organiser des concerts ou d'autres événements socioculturels[2].
+Les technologies de pelouse hybride sont principalement utilisées dans les stades et terrains d'entraînement des clubs professionnels de football et rugby. Elles permettent également aux stades d'organiser des concerts ou d'autres événements socioculturels.
 </t>
         </is>
       </c>
@@ -514,14 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Création
-La première technologie de pelouse hybride apparaît dans les années 1990 sous la marque déposée DESSO GrassMaster[3][source insuffisante]. La technologie est basée sur le piquage (dit « stitching ») de microfibres synthétiques entre les brins de gazon naturel. L'injection des microfibres synthétiques dans le substrat permet au gazon de mieux résister à l'arrachement. Cependant, certaines pelouses hybrides de première génération rendaient les surfaces de jeu plus dures que l'herbe naturelle non renforcée. Cela a soulevé des interrogations sur les risques de blessures des joueurs et sur la maintenance des surfaces.
+          <t>Création</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première technologie de pelouse hybride apparaît dans les années 1990 sous la marque déposée DESSO GrassMaster[source insuffisante]. La technologie est basée sur le piquage (dit « stitching ») de microfibres synthétiques entre les brins de gazon naturel. L'injection des microfibres synthétiques dans le substrat permet au gazon de mieux résister à l'arrachement. Cependant, certaines pelouses hybrides de première génération rendaient les surfaces de jeu plus dures que l'herbe naturelle non renforcée. Cela a soulevé des interrogations sur les risques de blessures des joueurs et sur la maintenance des surfaces.
 Depuis de nouvelles entreprises se sont penchées sur les pelouses hybrides pour créer de nouvelles générations de systèmes hybrides moins traumatisantes pour les joueurs.
-Nouvelles formes
-Dans les années 2010, une nouvelle génération de pelouse hybride émerge : la technologie AirFibr. Celle-ci est brevetée par l'entreprise Natural Grass.
-Cette technologie est constituée d'un gazon totalement naturel, enraciné dans un substrat de synthèse breveté composé de granules de liège, de microfibres synthétiques et de sable fin[4],[5]. Le sable est le composant majoritaire du substrat. Les microfibres synthétiques renforcent l'enracinement du gazon[6]. Les granules de liège absorbent les chocs et réduisent les risques de blessure des joueurs[7],[8],[9],[10],[11]. Ces résultats sont à l'origine d'un travail de recherche et développement réalisé en partenariat avec l'Institut de Biomécanique Humaine des Arts et Métiers ParisTech.
-Ces pelouses peuvent aussi bien être engazonnées par semis que par rouleaux de placage[12].
-L'avantage de cette dernière technique offre aux stades une flexibilité dans la gestion du terrain. En effet, en moins d'une semaine, la pelouse est changée et jouable. Grâce à ce délai court entre le placage et l'accueil d’un match, il est désormais possible d'augmenter le taux d'utilisation des stades, notamment en accueillant des événements socio-culturels (concerts, festivals) tout au long de l'année[13].
 </t>
         </is>
       </c>
@@ -547,15 +559,95 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nouvelles formes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 2010, une nouvelle génération de pelouse hybride émerge : la technologie AirFibr. Celle-ci est brevetée par l'entreprise Natural Grass.
+Cette technologie est constituée d'un gazon totalement naturel, enraciné dans un substrat de synthèse breveté composé de granules de liège, de microfibres synthétiques et de sable fin,. Le sable est le composant majoritaire du substrat. Les microfibres synthétiques renforcent l'enracinement du gazon. Les granules de liège absorbent les chocs et réduisent les risques de blessure des joueurs. Ces résultats sont à l'origine d'un travail de recherche et développement réalisé en partenariat avec l'Institut de Biomécanique Humaine des Arts et Métiers ParisTech.
+Ces pelouses peuvent aussi bien être engazonnées par semis que par rouleaux de placage.
+L'avantage de cette dernière technique offre aux stades une flexibilité dans la gestion du terrain. En effet, en moins d'une semaine, la pelouse est changée et jouable. Grâce à ce délai court entre le placage et l'accueil d’un match, il est désormais possible d'augmenter le taux d'utilisation des stades, notamment en accueillant des événements socio-culturels (concerts, festivals) tout au long de l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pelouse_hybride</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pelouse_hybride</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Installations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Technologie AirFibr
-Le premier terrain de nouvelle génération fut installé en 2013 au Stade de l'Aube de l'ESTAC de Troyes[14],[15]. Trois ans plus tard, les pelouses de nouvelle génération équipent la moitié des stades de l'Euro 2016[16]. En 2017, plus de 25 clubs professionnels européens de football et rugby sont équipés par la technologie AirFibr.
-GrassMaster
-Le système de pelouse hybride GrassMaster a été installé dans les stades suivants
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Technologie AirFibr</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier terrain de nouvelle génération fut installé en 2013 au Stade de l'Aube de l'ESTAC de Troyes,. Trois ans plus tard, les pelouses de nouvelle génération équipent la moitié des stades de l'Euro 2016. En 2017, plus de 25 clubs professionnels européens de football et rugby sont équipés par la technologie AirFibr.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pelouse_hybride</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pelouse_hybride</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Installations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>GrassMaster</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le système de pelouse hybride GrassMaster a été installé dans les stades suivants
 </t>
         </is>
       </c>
